--- a/PCB/bom/ManualBom.xlsx
+++ b/PCB/bom/ManualBom.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
   <si>
     <t xml:space="preserve">Line No</t>
   </si>
@@ -135,6 +135,36 @@
   </si>
   <si>
     <t xml:space="preserve">C2895036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Aluminum-Electrolytic-Capacitors-Leaded_CX-Dongguan-Chengxing-Elec-KS105M050C07RR0VH2FP0_C2760.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KS105M050C07RR0VH2FP0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1uF cap (D:4xP1.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2839237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.lcsc.com/product-detail/Aluminum-Electrolytic-Capacitors-Leaded_CX-Dongguan-Chengxing-Elec-KM477M035F16RR0VH2FP0_C47888.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM477M035F16RR0VH2FP0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">470uF 35V capacitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C47888</t>
   </si>
   <si>
     <t xml:space="preserve">[DIGIKEY]</t>
@@ -258,6 +288,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -279,11 +310,13 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -355,84 +388,92 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -449,24 +490,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.35"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="48.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="25.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="48.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="20.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,31 +517,31 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -510,10 +551,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="2" t="n">
         <v>12.84</v>
       </c>
     </row>
@@ -521,32 +562,32 @@
       <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="6" t="n">
         <v>0.0823</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="2" t="n">
         <f aca="false">I4*D4</f>
         <v>0.0823</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -554,32 +595,32 @@
       <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="6" t="n">
         <v>0.4382</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="2" t="n">
         <f aca="false">I5*D5</f>
         <v>0.4382</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -587,32 +628,32 @@
       <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="D6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="2" t="n">
         <v>0.1028</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="2" t="n">
         <f aca="false">I6*D6</f>
         <v>0.1028</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -620,32 +661,32 @@
       <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="2" t="n">
         <v>0.0851</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="2" t="n">
         <f aca="false">I7*D7</f>
         <v>0.7659</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -653,32 +694,32 @@
       <c r="A8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="2" t="n">
         <v>0.1441</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="2" t="n">
         <f aca="false">I8*D8</f>
         <v>0.2882</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -686,353 +727,405 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="2" t="n">
         <v>0.0217</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="2" t="n">
         <f aca="false">I9*D9</f>
         <v>0.1085</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="K11" s="0" t="n">
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.0596</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="K13" s="2" t="n">
         <v>6.99</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="0" t="n">
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="J12" s="0" t="n">
-        <f aca="false">I12*D12</f>
+      <c r="J14" s="2" t="n">
+        <f aca="false">I14*D14</f>
         <v>0.7</v>
       </c>
-      <c r="M12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="8"/>
-      <c r="I15" s="0" t="n">
-        <f aca="false">SUM(K15,J15)</f>
+      <c r="M14" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="10"/>
+      <c r="I17" s="2" t="n">
+        <f aca="false">SUM(K17,J17)</f>
         <v>44.689</v>
       </c>
-      <c r="J15" s="0" t="n">
-        <f aca="false">SUM(J3:J13)*10</f>
+      <c r="J17" s="2" t="n">
+        <f aca="false">SUM(J3:J15)*10</f>
         <v>24.859</v>
       </c>
-      <c r="K15" s="0" t="n">
-        <f aca="false">SUM(K3:K13)</f>
+      <c r="K17" s="2" t="n">
+        <f aca="false">SUM(K3:K15)</f>
         <v>19.83</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="10" t="n">
-        <f aca="false">I15/10</f>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="12" t="n">
+        <f aca="false">I17/10</f>
         <v>4.4689</v>
       </c>
     </row>
-    <row r="19" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="0"/>
-      <c r="D20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="12" t="n">
+    <row r="21" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="14" t="n">
         <v>6.91</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="12" t="n">
+      <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="14" t="n">
         <f aca="false">6.1/10</f>
         <v>0.61</v>
       </c>
-      <c r="J22" s="12" t="n">
-        <f aca="false">I22</f>
+      <c r="J24" s="14" t="n">
+        <f aca="false">I24</f>
         <v>0.61</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="H24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="6" t="s">
+    <row r="26" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="H26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="8"/>
-      <c r="I25" s="12" t="n">
-        <f aca="false">SUM(J25:K25)</f>
+      <c r="J26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="10"/>
+      <c r="I27" s="14" t="n">
+        <f aca="false">SUM(J27:K27)</f>
         <v>13.01</v>
       </c>
-      <c r="J25" s="12" t="n">
-        <f aca="false">SUM(J21:J23)*10</f>
+      <c r="J27" s="14" t="n">
+        <f aca="false">SUM(J23:J25)*10</f>
         <v>6.1</v>
       </c>
-      <c r="K25" s="12" t="n">
-        <f aca="false">K21</f>
+      <c r="K27" s="14" t="n">
+        <f aca="false">K23</f>
         <v>6.91</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="10" t="n">
-        <f aca="false">I25/10</f>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="12" t="n">
+        <f aca="false">I27/10</f>
         <v>1.301</v>
       </c>
     </row>
-    <row r="29" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="E31" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>58</v>
-      </c>
+    <row r="31" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G32" s="0" t="s">
+      <c r="B34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="12" t="n">
+      <c r="D34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="14" t="n">
         <v>10.89</v>
       </c>
-      <c r="J32" s="12" t="n">
+      <c r="J34" s="14" t="n">
         <v>10.89</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G33" s="0" t="s">
+      <c r="B35" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" s="12" t="n">
+      <c r="D35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" s="14" t="n">
         <f aca="false">25.99/3</f>
         <v>8.66333333333333</v>
       </c>
-      <c r="J33" s="12" t="n">
-        <f aca="false">I33</f>
+      <c r="J35" s="14" t="n">
+        <f aca="false">I35</f>
         <v>8.66333333333333</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="0" t="s">
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="12" t="n">
+      <c r="D36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="14" t="n">
         <v>7.99</v>
       </c>
-      <c r="J34" s="12" t="n">
-        <f aca="false">I34</f>
+      <c r="J36" s="14" t="n">
+        <f aca="false">I36</f>
         <v>7.99</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="J36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J37" s="10" t="n">
-        <f aca="false">SUM(J32:J34)</f>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="J38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="12" t="n">
+        <f aca="false">SUM(J34:J36)</f>
         <v>27.5433333333333</v>
       </c>
-      <c r="K37" s="12" t="n">
+      <c r="K39" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,9 +1137,11 @@
     <hyperlink ref="B7" r:id="rId4" display="https://lcsc.com/product-detail/Screw-terminal_JILN-JL126-50002G01_C394556.html"/>
     <hyperlink ref="B8" r:id="rId5" display="https://lcsc.com/product-detail/Female-Headers_Shenzhen-Kinghelm-Elec-KH-2-54FH-1X15P-H8-5_C2932676.html"/>
     <hyperlink ref="B9" r:id="rId6" display="https://lcsc.com/product-detail/Pin-Headers_Ckmtw-Shenzhen-Cankemeng-S051400078_C2895036.html"/>
-    <hyperlink ref="B12" r:id="rId7" display="https://www.digikey.com/en/products/detail/tensility-international-corp/54-00287/16649080?s=N4IgTCBcDaIBwGYCcBaArAFhQBm2OA7CgHIAiIAugL5A"/>
-    <hyperlink ref="B32" r:id="rId8" display="https://www.amazon.com/HiLetgo-Channel-Module-Optocoupler-Trigger/dp/B00LW2GA5Y/"/>
-    <hyperlink ref="B33" r:id="rId9" display="https://www.amazon.com/ELEGOO-Arduino-ATmega328P-Without-Compatible/dp/B0713XK923/"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://www.lcsc.com/product-detail/Aluminum-Electrolytic-Capacitors-Leaded_CX-Dongguan-Chengxing-Elec-KS105M050C07RR0VH2FP0_C2760.html"/>
+    <hyperlink ref="B11" r:id="rId8" display="https://www.lcsc.com/product-detail/Aluminum-Electrolytic-Capacitors-Leaded_CX-Dongguan-Chengxing-Elec-KM477M035F16RR0VH2FP0_C47888.html"/>
+    <hyperlink ref="B14" r:id="rId9" display="https://www.digikey.com/en/products/detail/tensility-international-corp/54-00287/16649080?s=N4IgTCBcDaIBwGYCcBaArAFhQBm2OA7CgHIAiIAugL5A"/>
+    <hyperlink ref="B34" r:id="rId10" display="https://www.amazon.com/HiLetgo-Channel-Module-Optocoupler-Trigger/dp/B00LW2GA5Y/"/>
+    <hyperlink ref="B35" r:id="rId11" display="https://www.amazon.com/ELEGOO-Arduino-ATmega328P-Without-Compatible/dp/B0713XK923/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1059,7 +1154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1075,35 +1170,35 @@
       <c r="A1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>70</v>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="n">
         <v>1717330</v>
       </c>
-      <c r="D1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="0" t="n">
+      <c r="D1" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="n">
         <v>1.41</v>
       </c>
-      <c r="J1" s="0" t="n">
+      <c r="J1" s="2" t="n">
         <f aca="false">I1*D1</f>
         <v>1.41</v>
       </c>
-      <c r="K1" s="0" t="n">
+      <c r="K1" s="2" t="n">
         <v>7.99</v>
       </c>
-      <c r="M1" s="0" t="n">
+      <c r="M1" s="2" t="n">
         <v>1</v>
       </c>
     </row>
